--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/056_JsonMultiColumnArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/056_JsonMultiColumnArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R60d4d6685887444f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R47c8b6b1dc474f36"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/056_JsonMultiColumnArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/056_JsonMultiColumnArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R47c8b6b1dc474f36"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R951c5639277a4110"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/056_JsonMultiColumnArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/056_JsonMultiColumnArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R951c5639277a4110"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R0816ee01626f46a2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/056_JsonMultiColumnArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/056_JsonMultiColumnArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R0816ee01626f46a2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="Rdb066cbac7c54c6e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/056_JsonMultiColumnArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/056_JsonMultiColumnArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="Rdb066cbac7c54c6e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R8a6a74bf4c954fb8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/056_JsonMultiColumnArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/056_JsonMultiColumnArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R8a6a74bf4c954fb8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="Re282c3b27aa64601"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/056_JsonMultiColumnArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/056_JsonMultiColumnArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="Re282c3b27aa64601"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="Rc781137901d24a1c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/056_JsonMultiColumnArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/056_JsonMultiColumnArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="Rc781137901d24a1c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="Rad0e32c2ec004ed7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/056_JsonMultiColumnArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/056_JsonMultiColumnArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="Rad0e32c2ec004ed7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="Raaecb1d57a5349a2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/056_JsonMultiColumnArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/056_JsonMultiColumnArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="Raaecb1d57a5349a2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R419830fa7a1844fc"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/056_JsonMultiColumnArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/056_JsonMultiColumnArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R419830fa7a1844fc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R7f79a56aaffb44a5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -29,7 +29,7 @@
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/056_JsonMultiColumnArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/056_JsonMultiColumnArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R7f79a56aaffb44a5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="Ra7e1da3f593c4e7d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -29,7 +29,7 @@
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/056_JsonMultiColumnArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/056_JsonMultiColumnArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="Ra7e1da3f593c4e7d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R1bea2c0e388b446e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
